--- a/web_scraper/processed_judgements_final/Cr.A-267-M-of-2021.xlsx
+++ b/web_scraper/processed_judgements_final/Cr.A-267-M-of-2021.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On March 15, 2020, Khalid Khan, the nephew of complainant Sanobar Khan, was murdered by Sultani Room, the accused/appellant. * The incident occurred at Sultani Room's house in Qalagai village, Kabal, Swat. * According to the prosecution, the motive for the murder was a verbal altercation between the parties. * The accused/appellant, Sultani Room, was armed with a Kalashnikov and fired at Khalid Khan, resulting in his death.  A man, Sultani Room, was accused of murdering another person, the deceased, inside the deceased's house. The prosecution claimed that the accused had a motive to kill the deceased due to a verbal altercation, but the accused denied having any premeditation or intention to kill. The exact motive for the killing was not established.  </t>
+          <t xml:space="preserve"> * The complainant, Sanobar Khan, reported that his nephew, Khalid Khan, was murdered by the accused, Sultani Room, on March 15, 2020. * According to the complainant, Khalid Khan was shot by Sultani Room with a Kalashnikov while they were at his aunt's house in Qalagai village. * The motive for the murder was a verbal altercation between the parties. * The prosecution's case hinges on the testimonies of three eyewitnesses: Faisal Hayat, Israr, and Mst. Gulshan Bibi, who claimed to have seen Sultani Room firing at Khalid Khan.   The accused, Sultani Room, was charged with the murder of the deceased, Nawab. The prosecution alleged that the accused intentionally killed the deceased during a verbal altercation at the accused's house. However, the court found that there was no specific motive established by the prosecution, and the accused's actions seemed to be a spontaneous reaction to the altercation, rather than a premeditated plan to kill.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Faisal Hayat (PW-10): An eyewitness who accompanied Khalid Khan to Sultani Room's house. He testified that he saw Sultani Room firing at Khalid Khan with a Kalashnikov. * Israr (PW-5): Another eyewitness who accompanied Khalid Khan to Sultani Room's house. He testified that he saw Sultani Room firing at Khalid Khan with a Kalashnikov. * Mst. Gulshan Bibi (PW-9): The real wife of Sultani Room and aunt of the deceased, Khalid Khan. She testified that she saw Sultani Room firing at Khalid Khan with a Kalashnikov. * Sanobar Khan (PW-11): The complainant and uncle of the deceased, Khalid Khan. He testified that he was informed by Faisal Hayat about the murder and reported it to the police.  None mentioned in the judgment.  </t>
+          <t xml:space="preserve"> * Faisal Hayat (PW-10) and Israr (PW-5) testified that they were with Khalid Khan when he was shot by Sultani Room. * Mst. Gulshan Bibi (PW-9) testified that she saw Sultani Room firing at Khalid Khan, but her testimony was deemed unreliable by the court. * Sanobar Khan (PW-11) testified that he received a call from Faisal Hayat informing him of the incident and that he went to the police station to report the crime.   No specific witnesses or testimonies are mentioned in the judgment.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Court convicted Sultani Room of murder under Section 302 PPC and sentenced him to imprisonment for life. * The Court also convicted Sultani Room of using a Kalashnikov to commit the murder under Section 15-AA PPC and sentenced him to three years' rigorous imprisonment. * The Court acquitted Sultani Room of the charge of abetment to murder under Section 201 PPC. * The Court ordered that the sentences would run concurrently. * The Court also extended the benefit of Section 382-B Cr.P.C. to Sultani Room. * The Court noted that the prosecution's case relied heavily on the testimonies of Faisal Hayat, Israr, and Mst. Gulshan Bibi, and that the medical evidence and circumstantial evidence supported the prosecution's version of events. * The Court also noted that the delay in reporting the murder to the police and the non-examination of Israr, a key eyewitness, were significant issues that required consideration. * Overall, the Court concluded that the prosecution had successfully proved the guilt of Sultani Room and that his sentence of life imprisonment required rethinking. The accused, Sultani Room, was convicted of murder under Section 302, PPC, and sentenced to life imprisonment. However, the court reduced the sentence to 10 years imprisonment, citing the lack of premeditation or planning on the part of the accused. The court relied on previous Supreme Court judgments that considered the concept of benefit of doubt not only in determining guilt or innocence but also in matters of sentence. The court also considered the fact that the accused was involved in a free-fight and struck the deceased with a single blow, which falls under clause (c) of Section 302, PPC. The court allowed the accused's appeal and reduced the sentence, while dismissing the connected criminal revision filed by the complainant for enhancement of sentence. </t>
+          <t xml:space="preserve"> * The court found Sultani Room guilty of murder (U/S 302 PPC) and sentenced him to life imprisonment. * The court also convicted Sultani Room of using a weapon to commit a crime (U/S 15-AA PPC) and sentenced him to three years' rigorous imprisonment and a fine of Rs. 10,000/-. * The court acquitted Sultani Room of the charge of causing disappearance of evidence (U/S 201 PPC). * The court noted that the prosecution's case was strong, with reliable eyewitness testimony and corroborating medical evidence. * However, the court reduced the sentence to life imprisonment due to the delay in reporting the crime to the police and the lack of plausible explanation for the delay. * The court also noted that the prosecution failed to produce an important eyewitness, Israr, and that the testimony of Mst. Gulshan Bibi was unreliable.  The court partially allowed the accused's appeal and reduced the sentence from life imprisonment to 10 years imprisonment. The court found that the accused did not have any premeditation or planning to kill the deceased, and the occurrence took place at the spur of the moment during the verbal altercation. The court relied on several Supreme Court judgments to support its decision, including the principles of benefit of doubt and the consideration of sentence reduction in cases where there is no premeditation or planning. The court also extended the benefit of Section 382-B Cr.P.C to the accused. The connected criminal revision filed by the complainant for enhancement of the sentence was dismissed as infructuous. </t>
         </is>
       </c>
     </row>
